--- a/discord_bot/export/Butcher#1432 2021-09-08.xlsx
+++ b/discord_bot/export/Butcher#1432 2021-09-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>message_id</t>
   </si>
@@ -29,6 +29,60 @@
   </si>
   <si>
     <t>server_name</t>
+  </si>
+  <si>
+    <t>attachment_name</t>
+  </si>
+  <si>
+    <t>Butcher#1432</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>2021-09-08 11:41:11.709000</t>
+  </si>
+  <si>
+    <t>34 Group</t>
+  </si>
+  <si>
+    <t>2021-09-08 11:41:12.346000</t>
+  </si>
+  <si>
+    <t>2021-09-08 11:41:12.896000</t>
+  </si>
+  <si>
+    <t>/help</t>
+  </si>
+  <si>
+    <t>2021-09-08 19:00:58.684000</t>
+  </si>
+  <si>
+    <t>ARMA 3 COOP</t>
+  </si>
+  <si>
+    <t>/get_data</t>
+  </si>
+  <si>
+    <t>2021-09-08 19:07:24.651000</t>
+  </si>
+  <si>
+    <t>/get_dta</t>
+  </si>
+  <si>
+    <t>2021-09-08 19:08:43.070000</t>
+  </si>
+  <si>
+    <t>/get_dat</t>
+  </si>
+  <si>
+    <t>2021-09-08 19:08:45.742000</t>
+  </si>
+  <si>
+    <t>2021-09-08 19:08:49.087000</t>
+  </si>
+  <si>
+    <t>2021-09-08 19:08:59.161000</t>
   </si>
 </sst>
 </file>
@@ -44,7 +98,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF79AD74"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1E4E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -85,9 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,16 +443,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="24.7109375" customWidth="1"/>
+    <col min="1" max="6" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,6 +468,171 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
